--- a/Day23.xlsx
+++ b/Day23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROB6035\OneDrive - Robeco Nederland B.V\Documents\Advent of Code\AdventOfCode2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF12D11-E8FE-4E09-BA86-08854424B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9D1F27-5189-44BE-BA0D-489E94DC3670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="37670" windowHeight="21820" xr2:uid="{21B3A16E-47BD-4C50-AD39-3CCE5531DEF3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
   <si>
     <t>C</t>
   </si>
@@ -69,42 +69,21 @@
     <t>A-&gt;H</t>
   </si>
   <si>
-    <t>A-&gt;F</t>
-  </si>
-  <si>
     <t>A-&gt;M</t>
   </si>
   <si>
-    <t>B-&gt;F</t>
-  </si>
-  <si>
     <t>D-&gt;O</t>
   </si>
   <si>
-    <t>D-&gt;M</t>
-  </si>
-  <si>
     <t>B-&gt;G</t>
   </si>
   <si>
     <t>D-&gt;P</t>
   </si>
   <si>
-    <t>A-&gt;I</t>
-  </si>
-  <si>
     <t>A-&gt;O</t>
   </si>
   <si>
-    <t>D-&gt;K</t>
-  </si>
-  <si>
-    <t>A-&gt;J</t>
-  </si>
-  <si>
-    <t>A-&gt;P</t>
-  </si>
-  <si>
     <t>A=40</t>
   </si>
   <si>
@@ -118,6 +97,24 @@
   </si>
   <si>
     <t>Lowest score (breaks rules)</t>
+  </si>
+  <si>
+    <t>C-&gt;F</t>
+  </si>
+  <si>
+    <t>C-&gt;I</t>
+  </si>
+  <si>
+    <t>C-&gt;K</t>
+  </si>
+  <si>
+    <t>B-&gt;P</t>
+  </si>
+  <si>
+    <t>B-&gt;H</t>
+  </si>
+  <si>
+    <t>B-&gt;O</t>
   </si>
 </sst>
 </file>
@@ -607,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FD40F1-2304-4F85-80CB-52AB08D85FF7}">
-  <dimension ref="F2:AL66"/>
+  <dimension ref="F2:AL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T63" sqref="T63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,32 +632,32 @@
     <row r="4" spans="6:38" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="G4" s="11"/>
       <c r="H4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="6:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H5" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="6:38" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -754,7 +751,7 @@
     </row>
     <row r="15" spans="6:38" x14ac:dyDescent="0.35">
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -966,31 +963,31 @@
     </row>
     <row r="35" spans="7:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="P35" s="13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
     </row>
     <row r="36" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I36">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="P36">
         <v>11</v>
       </c>
       <c r="R36" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I37">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P37">
         <v>11</v>
@@ -998,10 +995,10 @@
     </row>
     <row r="38" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I38">
-        <v>70</v>
+        <v>10000</v>
       </c>
       <c r="P38">
         <v>9</v>
@@ -1009,10 +1006,10 @@
     </row>
     <row r="39" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H39" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I39">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="P39">
         <v>9</v>
@@ -1020,24 +1017,24 @@
     </row>
     <row r="40" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I40">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P40">
         <v>100</v>
       </c>
       <c r="R40" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H41" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>5000</v>
+        <v>11</v>
       </c>
       <c r="P41">
         <v>70</v>
@@ -1045,10 +1042,10 @@
     </row>
     <row r="42" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H42" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I42">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="P42">
         <v>50</v>
@@ -1056,10 +1053,10 @@
     </row>
     <row r="43" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H43" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I43">
-        <v>60</v>
+        <v>700</v>
       </c>
       <c r="P43">
         <v>60</v>
@@ -1067,24 +1064,24 @@
     </row>
     <row r="44" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I44">
-        <v>60</v>
+        <v>5000</v>
       </c>
       <c r="P44">
         <v>900</v>
       </c>
       <c r="R44" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H45" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I45">
-        <v>9</v>
+        <v>5000</v>
       </c>
       <c r="P45">
         <v>900</v>
@@ -1092,10 +1089,10 @@
     </row>
     <row r="46" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I46">
-        <v>9</v>
+        <v>5000</v>
       </c>
       <c r="P46">
         <v>600</v>
@@ -1103,10 +1100,10 @@
     </row>
     <row r="47" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H47" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I47">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="P47">
         <v>600</v>
@@ -1114,24 +1111,24 @@
     </row>
     <row r="48" spans="7:36" x14ac:dyDescent="0.35">
       <c r="H48" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I48">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="P48">
         <v>7000</v>
       </c>
       <c r="R48" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I49">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="P49">
         <v>11000</v>
@@ -1139,10 +1136,10 @@
     </row>
     <row r="50" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H50" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I50">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="P50">
         <v>10000</v>
@@ -1150,10 +1147,10 @@
     </row>
     <row r="51" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H51" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="P51">
         <v>10000</v>
@@ -1161,10 +1158,10 @@
     </row>
     <row r="52" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H52" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R52">
         <f>(40+280+3000+38000)</f>
@@ -1173,66 +1170,66 @@
     </row>
     <row r="53" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I53">
-        <v>700</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H54" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I54">
-        <v>700</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>5000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H56" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I56">
-        <v>5000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H57" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>6</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="58" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H58" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H59" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I59">
-        <v>10000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H60" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I60">
-        <v>10000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="8:18" x14ac:dyDescent="0.35">
@@ -1245,40 +1242,16 @@
     </row>
     <row r="62" spans="8:18" x14ac:dyDescent="0.35">
       <c r="H62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H63" t="s">
-        <v>10</v>
-      </c>
       <c r="I63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="8:18" x14ac:dyDescent="0.35">
-      <c r="H64" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H65" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="I66">
-        <f>SUM(I36:I65)</f>
-        <v>50070</v>
+        <f>SUM(I36:I62)</f>
+        <v>48708</v>
       </c>
     </row>
   </sheetData>
